--- a/PE loop sample 5/Sample D/Unnormalized_Pmax_Sample_5D_100kHz.xlsx
+++ b/PE loop sample 5/Sample D/Unnormalized_Pmax_Sample_5D_100kHz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,95 +444,145 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A11_bipolar_10V_100kHz.txt</t>
+          <t>A1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.085977</v>
+        <v>53.764546</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A12_bipolar_10V_100kHz.txt</t>
+          <t>A4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.670401</v>
+        <v>54.516383</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A13_bipolar_10V_100kHz.txt</t>
+          <t>A6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.81682</v>
+        <v>52.539397</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A15_bipolar_10V_100kHz.txt</t>
+          <t>A7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.775068</v>
+        <v>50.083638</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A1_bipolar_10V_100kHz.txt</t>
+          <t>A9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.764546</v>
+        <v>47.170952</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A4_bipolar_10V_100kHz.txt</t>
+          <t>A11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.516383</v>
+        <v>46.085977</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A6_bipolar_10V_100kHz.txt</t>
+          <t>A12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.539397</v>
+        <v>49.670401</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A12</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A7_bipolar_10V_100kHz.txt</t>
+          <t>A13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.083638</v>
+        <v>57.81682</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A9_bipolar_10V_100kHz.txt</t>
+          <t>A15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.170952</v>
+        <v>35.775068</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -544,335 +594,505 @@
       <c r="B11" t="n">
         <v>72.46217</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C12_bipolar_10V_100kHz.txt</t>
+          <t>C1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.02149300000001</v>
+        <v>88.298081</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_100kHz.txt</t>
+          <t>C3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.649992</v>
+        <v>81.82645599999999</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C1_bipolar_10V_100kHz.txt</t>
+          <t>C7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.298081</v>
+        <v>77.32999700000001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_100kHz.txt</t>
+          <t>C12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.82645599999999</v>
+        <v>66.02149300000001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C7_bipolar_10V_100kHz.txt</t>
+          <t>C13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.32999700000001</v>
+        <v>59.649992</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D10_bipolar_10V_100kHz.txt</t>
+          <t>D6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.143913</v>
+        <v>77.08788</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D6_bipolar_10V_100kHz.txt</t>
+          <t>D10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.08788</v>
+        <v>59.143913</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E11_bipolar_10V_100kHz.txt</t>
+          <t>E5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.492851</v>
+        <v>80.916242</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E14_bipolar_10V_100kHz.txt</t>
+          <t>E9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.508583</v>
+        <v>66.90804199999999</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E5_bipolar_10V_100kHz.txt</t>
+          <t>E11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.916242</v>
+        <v>60.492851</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E9_bipolar_10V_100kHz.txt</t>
+          <t>E14_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.90804199999999</v>
+        <v>58.508583</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E14</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F14_bipolar_10V_100kHz.txt</t>
+          <t>F2_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.847701</v>
+        <v>82.10134100000001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F2_bipolar_10V_100kHz.txt</t>
+          <t>F3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.10134100000001</v>
+        <v>85.829579</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F3_bipolar_10V_100kHz.txt</t>
+          <t>F8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.829579</v>
+        <v>71.837763</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F8_bipolar_10V_100kHz.txt</t>
+          <t>F14_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.837763</v>
+        <v>54.847701</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G11_bipolar_10V_100kHz.txt</t>
+          <t>G4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.843542</v>
+        <v>79.12129899999999</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G4_bipolar_10V_100kHz.txt</t>
+          <t>G7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.12129899999999</v>
+        <v>70.670868</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G7_bipolar_10V_100kHz.txt</t>
+          <t>G11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.670868</v>
+        <v>58.843542</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>H10_bipolar_10V_100kHz.txt</t>
+          <t>H1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64.144631</v>
+        <v>85.865988</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>H1_bipolar_10V_100kHz.txt</t>
+          <t>H4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.865988</v>
+        <v>80.00056600000001</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>H4_bipolar_10V_100kHz.txt</t>
+          <t>H5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.00056600000001</v>
+        <v>78.50781499999999</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>H5_bipolar_10V_100kHz.txt</t>
+          <t>H10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.50781499999999</v>
+        <v>64.144631</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I11_bipolar_10V_100kHz.txt</t>
+          <t>I4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.289547</v>
+        <v>74.648505</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I15_bipolar_10V_100kHz.txt</t>
+          <t>I6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.095146</v>
+        <v>72.91363699999999</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I4_bipolar_10V_100kHz.txt</t>
+          <t>I7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.648505</v>
+        <v>67.224797</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I6_bipolar_10V_100kHz.txt</t>
+          <t>I11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.91363699999999</v>
+        <v>59.289547</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I7_bipolar_10V_100kHz.txt</t>
+          <t>I15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.224797</v>
+        <v>49.095146</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>J13_bipolar_10V_100kHz.txt</t>
+          <t>J3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.745757</v>
+        <v>75.973778</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>J3</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>J3_bipolar_10V_100kHz.txt</t>
+          <t>J13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.973778</v>
+        <v>54.745757</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>K10_bipolar_10V_100kHz.txt</t>
+          <t>K1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.360026</v>
+        <v>90.229556</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_100kHz.txt</t>
+          <t>K3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>90.229556</v>
+        <v>77.40645499999999</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K3_bipolar_10V_100kHz.txt</t>
+          <t>K7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.40645499999999</v>
+        <v>68.40443399999999</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K7_bipolar_10V_100kHz.txt</t>
+          <t>K10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.40443399999999</v>
+        <v>63.360026</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -884,75 +1104,115 @@
       <c r="B45" t="n">
         <v>48.60545</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M12_bipolar_10V_100kHz.txt</t>
+          <t>M3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.83145</v>
+        <v>72.84264</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>M14_bipolar_10V_100kHz.txt</t>
+          <t>M5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55.617742</v>
+        <v>78.438638</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M15_bipolar_10V_100kHz.txt</t>
+          <t>M8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>52.513911</v>
+        <v>64.286624</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M3_bipolar_10V_100kHz.txt</t>
+          <t>M9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>72.84264</v>
+        <v>66.804277</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M9</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M5_bipolar_10V_100kHz.txt</t>
+          <t>M12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>78.438638</v>
+        <v>60.83145</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M12</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M8_bipolar_10V_100kHz.txt</t>
+          <t>M14_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>64.286624</v>
+        <v>55.617742</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M14</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M9_bipolar_10V_100kHz.txt</t>
+          <t>M15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>66.804277</v>
+        <v>52.513911</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -964,75 +1224,115 @@
       <c r="B53" t="n">
         <v>54.427182</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>O11_bipolar_10V_100kHz.txt</t>
+          <t>O1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55.470287</v>
+        <v>56.926631</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>O13_bipolar_10V_100kHz.txt</t>
+          <t>O3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>48.616373</v>
+        <v>51.905888</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>O1_bipolar_10V_100kHz.txt</t>
+          <t>O6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>56.926631</v>
+        <v>53.160163</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O6</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>O3_bipolar_10V_100kHz.txt</t>
+          <t>O7_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>51.905888</v>
+        <v>49.335442</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>O7</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>O6_bipolar_10V_100kHz.txt</t>
+          <t>O9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>53.160163</v>
+        <v>49.047814</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O9</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>O7_bipolar_10V_100kHz.txt</t>
+          <t>O11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>49.335442</v>
+        <v>55.470287</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>O11</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O9_bipolar_10V_100kHz.txt</t>
+          <t>O13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>49.047814</v>
+        <v>48.616373</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
       </c>
     </row>
   </sheetData>
